--- a/KATO/Template/H0210_ShiireDetail.xlsx
+++ b/KATO/Template/H0210_ShiireDetail.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Template1" sheetId="4" r:id="rId1"/>
     <sheet name="Template2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -333,12 +333,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -350,6 +344,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,18 +674,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -742,10 +742,10 @@
       <c r="B13" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
@@ -772,8 +772,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="9"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -787,8 +787,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -802,8 +802,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -817,8 +817,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -832,8 +832,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -847,8 +847,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -862,8 +862,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -877,8 +877,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -892,8 +892,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -907,8 +907,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -922,8 +922,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -937,8 +937,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -952,8 +952,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -967,8 +967,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -982,8 +982,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -997,8 +997,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1012,8 +1012,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1027,8 +1027,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1042,8 +1042,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1057,8 +1057,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1072,8 +1072,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1087,8 +1087,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1102,8 +1102,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1117,8 +1117,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1132,8 +1132,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1147,8 +1147,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1162,8 +1162,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1177,8 +1177,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1192,8 +1192,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1207,8 +1207,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -1222,8 +1222,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -1237,8 +1237,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -1252,8 +1252,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -1271,25 +1271,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A47:B47"/>
@@ -1306,6 +1287,25 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1335,10 +1335,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1365,8 +1365,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1380,8 +1380,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1395,8 +1395,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1410,8 +1410,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1425,8 +1425,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1440,8 +1440,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1455,8 +1455,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1470,8 +1470,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1485,8 +1485,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1500,8 +1500,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1515,8 +1515,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1530,8 +1530,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1545,8 +1545,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1560,8 +1560,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1575,8 +1575,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1590,8 +1590,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="6"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1605,8 +1605,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1620,8 +1620,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1635,8 +1635,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -1650,8 +1650,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1665,8 +1665,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -1680,8 +1680,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -1695,8 +1695,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1710,8 +1710,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1725,8 +1725,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="6"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1740,8 +1740,8 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="6"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1770,8 +1770,8 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="6"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1785,8 +1785,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
       <c r="C31" s="6"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1800,8 +1800,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
       <c r="C32" s="6"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1815,8 +1815,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="6"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1830,8 +1830,8 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
       <c r="C34" s="6"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="6"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1860,8 +1860,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
       <c r="C36" s="6"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1875,8 +1875,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="6"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1890,8 +1890,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="6"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1905,8 +1905,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="6"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1920,8 +1920,8 @@
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
       <c r="C40" s="6"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -1935,8 +1935,8 @@
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="6"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
@@ -1950,8 +1950,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -1965,8 +1965,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1980,8 +1980,8 @@
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -1995,8 +1995,8 @@
       </c>
     </row>
     <row r="45" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -2010,8 +2010,8 @@
       </c>
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2025,8 +2025,8 @@
       </c>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -2040,8 +2040,8 @@
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2059,6 +2059,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A38:B38"/>
@@ -2075,37 +2106,6 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/KATO/Template/H0210_ShiireDetail.xlsx
+++ b/KATO/Template/H0210_ShiireDetail.xlsx
@@ -345,10 +345,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1271,6 +1271,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A47:B47"/>
@@ -1287,25 +1306,6 @@
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2059,37 +2059,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A38:B38"/>
@@ -2106,6 +2075,37 @@
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/KATO/Template/H0210_ShiireDetail.xlsx
+++ b/KATO/Template/H0210_ShiireDetail.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Template1" sheetId="4" r:id="rId1"/>
     <sheet name="Template2" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -712,163 +712,163 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,132 +1189,135 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+    </row>
+    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="M3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="5"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
       <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="5"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+    </row>
+    <row r="6" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
       <c r="H8" s="3"/>
       <c r="I8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
       <c r="L8" s="3"/>
       <c r="M8" s="6" t="s">
         <v>28</v>
@@ -1323,897 +1326,887 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
+    <row r="9" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="59" t="s">
+      <c r="H10" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60" t="s">
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="60" t="s">
+      <c r="N10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="60" t="s">
+      <c r="O10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="61"/>
-    </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="P10" s="30"/>
+    </row>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="40" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38" t="s">
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="38" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="31"/>
       <c r="P13" s="32"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="31"/>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="38" t="s">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="38" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="33"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="40" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="40" t="s">
+      <c r="O20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="38" t="s">
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="38" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="31"/>
       <c r="P22" s="32"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="38" t="s">
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="38" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="31"/>
       <c r="P24" s="32"/>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="31"/>
       <c r="P25" s="32"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="33"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="40" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="38" t="s">
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="38" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="31"/>
       <c r="P29" s="32"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="31"/>
       <c r="P31" s="32"/>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="38" t="s">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="38" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="31"/>
       <c r="P32" s="32"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="31"/>
       <c r="P33" s="32"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="33"/>
       <c r="P34" s="34"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="35"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="40" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41" t="s">
+      <c r="E36" s="35"/>
+      <c r="F36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="41" t="s">
+      <c r="N36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="40" t="s">
+      <c r="O36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="38" t="s">
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="38" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="31"/>
       <c r="P37" s="32"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
       <c r="O38" s="31"/>
       <c r="P38" s="32"/>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
       <c r="O39" s="31"/>
       <c r="P39" s="32"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="38" t="s">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="38" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="25"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
       <c r="O40" s="31"/>
       <c r="P40" s="32"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
       <c r="O41" s="31"/>
       <c r="P41" s="32"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="33"/>
       <c r="P42" s="34"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="35"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="40" t="s">
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41" t="s">
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="41" t="s">
+      <c r="N44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="40" t="s">
+      <c r="O44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="42"/>
-    </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="38" t="s">
+      <c r="P44" s="36"/>
+    </row>
+    <row r="45" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="38" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="25"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
       <c r="O45" s="31"/>
       <c r="P45" s="32"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="25"/>
+    <row r="46" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="31"/>
       <c r="P46" s="32"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="13"/>
       <c r="O47" s="31"/>
       <c r="P47" s="32"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="38" t="s">
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="38" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="25"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13"/>
       <c r="O48" s="31"/>
       <c r="P48" s="32"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="31"/>
       <c r="P49" s="32"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="57"/>
-    </row>
-    <row r="51" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="39"/>
+    </row>
+    <row r="51" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="E45:E47"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L29:L31"/>
-    <mergeCell ref="L32:L34"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="L45:L47"/>
     <mergeCell ref="L48:L50"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="E13:E15"/>
@@ -2227,6 +2220,19 @@
     <mergeCell ref="I45:K45"/>
     <mergeCell ref="I48:K48"/>
     <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L29:L31"/>
+    <mergeCell ref="L32:L34"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="I50:K50"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="I40:K40"/>
@@ -2240,29 +2246,8 @@
     <mergeCell ref="I38:K38"/>
     <mergeCell ref="I46:K46"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="E48:E50"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
@@ -2283,9 +2268,6 @@
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A36:C36"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I14:K14"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="N3:O3"/>
@@ -2307,9 +2289,9 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="B6:D6"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
@@ -2318,6 +2300,22 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="H43:L43"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="I23:K23"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="A48:C48"/>
@@ -2340,9 +2338,8 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="O49:P49"/>
@@ -2364,9 +2361,16 @@
     <mergeCell ref="O36:P36"/>
     <mergeCell ref="O37:P37"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0" top="0.11811023622047245" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
@@ -2375,1090 +2379,1091 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:P10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="20.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.25" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.375" style="1" customWidth="1"/>
     <col min="8" max="9" width="6" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="3.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.375" style="1" customWidth="1"/>
     <col min="15" max="15" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="16" max="16" width="15.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="19" t="s">
+      <c r="A1" s="51"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+    </row>
+    <row r="2" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="59" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="E2" s="56"/>
+      <c r="F2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60" t="s">
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="61"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="35"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="40" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41" t="s">
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="40" t="s">
+      <c r="O4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="42"/>
-    </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="38" t="s">
+      <c r="P4" s="36"/>
+    </row>
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="38" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="31"/>
       <c r="P5" s="32"/>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
       <c r="O6" s="31"/>
       <c r="P6" s="32"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
       <c r="O7" s="31"/>
       <c r="P7" s="32"/>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="38" t="s">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="38" t="s">
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
       <c r="O8" s="31"/>
       <c r="P8" s="32"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
       <c r="O9" s="31"/>
       <c r="P9" s="32"/>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="16"/>
       <c r="O10" s="33"/>
       <c r="P10" s="34"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="35"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="40" t="s">
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="35"/>
+      <c r="F12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="40" t="s">
+      <c r="I12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="40" t="s">
+      <c r="O12" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P12" s="42"/>
-    </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="38" t="s">
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="38" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
       <c r="O13" s="31"/>
       <c r="P13" s="32"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
       <c r="O14" s="31"/>
       <c r="P14" s="32"/>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="31"/>
       <c r="P15" s="32"/>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="38" t="s">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="38" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13"/>
       <c r="O16" s="31"/>
       <c r="P16" s="32"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="16"/>
       <c r="O18" s="33"/>
       <c r="P18" s="34"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="40" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="17"/>
+    </row>
+    <row r="20" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="41" t="s">
+      <c r="G20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41" t="s">
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="40" t="s">
+      <c r="O20" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P20" s="42"/>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="38" t="s">
+      <c r="P20" s="36"/>
+    </row>
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="38" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="31"/>
       <c r="P21" s="32"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="31"/>
       <c r="P22" s="32"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="25"/>
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="31"/>
       <c r="P23" s="32"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="38" t="s">
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="38" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="13"/>
       <c r="O24" s="31"/>
       <c r="P24" s="32"/>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="31"/>
       <c r="P25" s="32"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
       <c r="O26" s="33"/>
       <c r="P26" s="34"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="45"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="35"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="40" t="s">
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41" t="s">
+      <c r="E28" s="35"/>
+      <c r="F28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="G28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="40" t="s">
+      <c r="I28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41" t="s">
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="40" t="s">
+      <c r="O28" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P28" s="42"/>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="38" t="s">
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="24"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="38" t="s">
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="13"/>
       <c r="O29" s="31"/>
       <c r="P29" s="32"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="13"/>
       <c r="O30" s="31"/>
       <c r="P30" s="32"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
       <c r="O31" s="31"/>
       <c r="P31" s="32"/>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="38" t="s">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="38" t="s">
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="24"/>
-      <c r="N32" s="25"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="13"/>
       <c r="O32" s="31"/>
       <c r="P32" s="32"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="13"/>
       <c r="O33" s="31"/>
       <c r="P33" s="32"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="16"/>
       <c r="O34" s="33"/>
       <c r="P34" s="34"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="45"/>
       <c r="E35" s="45"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="46"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="35"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="40" t="s">
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="17"/>
+    </row>
+    <row r="36" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41" t="s">
+      <c r="E36" s="35"/>
+      <c r="F36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="41" t="s">
+      <c r="H36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41" t="s">
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N36" s="41" t="s">
+      <c r="N36" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O36" s="40" t="s">
+      <c r="O36" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P36" s="42"/>
-    </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="38" t="s">
+      <c r="P36" s="36"/>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="38" t="s">
+      <c r="F37" s="12"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="13"/>
       <c r="O37" s="31"/>
       <c r="P37" s="32"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="13"/>
       <c r="O38" s="31"/>
       <c r="P38" s="32"/>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="13"/>
       <c r="O39" s="31"/>
       <c r="P39" s="32"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="38" t="s">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="38" t="s">
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="24"/>
-      <c r="N40" s="25"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
       <c r="O40" s="31"/>
       <c r="P40" s="32"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
       <c r="O41" s="31"/>
       <c r="P41" s="32"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="29"/>
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
       <c r="O42" s="33"/>
       <c r="P42" s="34"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="48"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="45"/>
       <c r="E43" s="45"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="49"/>
-      <c r="P43" s="35"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="40" t="s">
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="17"/>
+    </row>
+    <row r="44" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41" t="s">
+      <c r="E44" s="35"/>
+      <c r="F44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="41" t="s">
+      <c r="G44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41" t="s">
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="N44" s="41" t="s">
+      <c r="N44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O44" s="40" t="s">
+      <c r="O44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="42"/>
-    </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="38" t="s">
+      <c r="P44" s="36"/>
+    </row>
+    <row r="45" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="38" t="s">
+      <c r="F45" s="12"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="M45" s="24"/>
-      <c r="N45" s="25"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
       <c r="O45" s="31"/>
       <c r="P45" s="32"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="25"/>
+    <row r="46" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="13"/>
       <c r="O46" s="31"/>
       <c r="P46" s="32"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="13"/>
       <c r="O47" s="31"/>
       <c r="P47" s="32"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="38" t="s">
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="24"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="38" t="s">
+      <c r="F48" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="24"/>
-      <c r="N48" s="25"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13"/>
       <c r="O48" s="31"/>
       <c r="P48" s="32"/>
     </row>
-    <row r="49" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
+    <row r="49" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
       <c r="O49" s="31"/>
       <c r="P49" s="32"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="12"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="51"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="57"/>
-    </row>
-    <row r="51" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:16" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="42"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="38"/>
+      <c r="P50" s="39"/>
+    </row>
+    <row r="51" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" spans="1:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P52" s="8"/>
     </row>
   </sheetData>
@@ -3643,7 +3648,7 @@
     <mergeCell ref="O21:P21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.31496062992125984" right="0" top="0.11811023622047245" bottom="0" header="0.31496062992125984" footer="0"/>
+  <pageMargins left="0.39370078740157483" right="0" top="0.35433070866141736" bottom="0" header="0.31496062992125984" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>